--- a/data/trans_orig/IP29_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP29_R-Edad-trans_orig.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B13A8A30-8BE9-431E-A718-61B0E1FE049E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0DFA6B3-DEB3-4C73-A5E7-D237D59BD02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66020752-453B-4007-969A-3A45038717B2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C287CDF-C9E0-4A71-8173-3A4856F11FBA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
-    <sheet name="2023" sheetId="5" r:id="rId4"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="366">
-  <si>
-    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2007 (Tasa respuesta: 98,43%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="277">
+  <si>
+    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2007 (Tasa respuesta: 96,15%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,61 +73,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1006 +136,739 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2012 (Tasa respuesta: 97,57%)</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2016 (Tasa respuesta: 97,51%)</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
   </si>
   <si>
     <t>25,81%</t>
   </si>
   <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
   </si>
   <si>
     <t>74,19%</t>
   </si>
   <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2012 (Tasa respuesta: 99,05%)</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
   </si>
   <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
   </si>
   <si>
     <t>76,53%</t>
   </si>
   <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2015 (Tasa respuesta: 98,78%)</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2023 (Tasa respuesta: 46,88%)</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E414BC9-5642-4954-8A9C-CA705956402E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBB9D7C-2E4A-436F-B996-3651102F28C3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1699,7 +1431,7 @@
         <v>90</v>
       </c>
       <c r="N4" s="7">
-        <v>60038</v>
+        <v>60037</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1717,10 +1449,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D5" s="7">
-        <v>89689</v>
+        <v>76658</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1732,10 +1464,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="I5" s="7">
-        <v>73963</v>
+        <v>64177</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1747,10 +1479,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="N5" s="7">
-        <v>163651</v>
+        <v>140835</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1768,10 +1500,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="D6" s="7">
-        <v>119488</v>
+        <v>106457</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1783,10 +1515,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="I6" s="7">
-        <v>104201</v>
+        <v>94415</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1798,10 +1530,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="N6" s="7">
-        <v>223689</v>
+        <v>200872</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1824,7 +1556,7 @@
         <v>118</v>
       </c>
       <c r="D7" s="7">
-        <v>77987</v>
+        <v>77988</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1872,10 +1604,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D8" s="7">
-        <v>172955</v>
+        <v>172253</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1887,10 +1619,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I8" s="7">
-        <v>179474</v>
+        <v>174311</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1902,10 +1634,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="N8" s="7">
-        <v>352429</v>
+        <v>346565</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1923,10 +1655,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D9" s="7">
-        <v>250942</v>
+        <v>250241</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1938,10 +1670,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="I9" s="7">
-        <v>252509</v>
+        <v>247346</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1953,10 +1685,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="N9" s="7">
-        <v>503451</v>
+        <v>497587</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2009,7 +1741,7 @@
         <v>101</v>
       </c>
       <c r="N10" s="7">
-        <v>67442</v>
+        <v>67441</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2027,10 +1759,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="7">
-        <v>109985</v>
+        <v>109338</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2042,10 +1774,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I11" s="7">
-        <v>83879</v>
+        <v>82517</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2057,10 +1789,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N11" s="7">
-        <v>193864</v>
+        <v>191856</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2078,10 +1810,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" s="7">
-        <v>137381</v>
+        <v>136734</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2093,10 +1825,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I12" s="7">
-        <v>123925</v>
+        <v>122563</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2108,10 +1840,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N12" s="7">
-        <v>261306</v>
+        <v>259297</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2182,10 +1914,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D14" s="7">
-        <v>139674</v>
+        <v>138353</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2197,10 +1929,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I14" s="7">
-        <v>127343</v>
+        <v>126660</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2212,10 +1944,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="N14" s="7">
-        <v>267017</v>
+        <v>265013</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2233,10 +1965,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D15" s="7">
-        <v>203326</v>
+        <v>202005</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2248,10 +1980,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I15" s="7">
-        <v>189124</v>
+        <v>188441</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2263,10 +1995,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="N15" s="7">
-        <v>392450</v>
+        <v>390446</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2289,7 +2021,7 @@
         <v>300</v>
       </c>
       <c r="D16" s="7">
-        <v>198835</v>
+        <v>198834</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2337,10 +2069,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>769</v>
+        <v>746</v>
       </c>
       <c r="D17" s="7">
-        <v>512303</v>
+        <v>496603</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2352,10 +2084,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>696</v>
+        <v>671</v>
       </c>
       <c r="I17" s="7">
-        <v>464658</v>
+        <v>447665</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2367,10 +2099,10 @@
         <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>1465</v>
+        <v>1417</v>
       </c>
       <c r="N17" s="7">
-        <v>976962</v>
+        <v>944268</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>103</v>
@@ -2388,10 +2120,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1069</v>
+        <v>1046</v>
       </c>
       <c r="D18" s="7">
-        <v>711138</v>
+        <v>695437</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2403,10 +2135,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="I18" s="7">
-        <v>669758</v>
+        <v>652765</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2418,10 +2150,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2071</v>
+        <v>2023</v>
       </c>
       <c r="N18" s="7">
-        <v>1380896</v>
+        <v>1348202</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2455,7 +2187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26B2773-53B8-407D-8FF9-1BAC4968F1C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF425FF-9B52-49D1-8A03-37AFA868DEFF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2624,10 +2356,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D5" s="7">
-        <v>116811</v>
+        <v>106877</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>117</v>
@@ -2639,10 +2371,10 @@
         <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="I5" s="7">
-        <v>107852</v>
+        <v>97243</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>120</v>
@@ -2654,10 +2386,10 @@
         <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="N5" s="7">
-        <v>224663</v>
+        <v>204120</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>123</v>
@@ -2675,10 +2407,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D6" s="7">
-        <v>145990</v>
+        <v>136056</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2690,10 +2422,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I6" s="7">
-        <v>146761</v>
+        <v>136152</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2705,10 +2437,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="N6" s="7">
-        <v>292751</v>
+        <v>272208</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3044,13 +2776,13 @@
         <v>44697</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -3095,19 +2827,19 @@
         <v>131889</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I14" s="7">
-        <v>127511</v>
+        <v>125945</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>172</v>
@@ -3119,10 +2851,10 @@
         <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N14" s="7">
-        <v>259400</v>
+        <v>257834</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>175</v>
@@ -3155,10 +2887,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I15" s="7">
-        <v>168579</v>
+        <v>167013</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3170,10 +2902,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="N15" s="7">
-        <v>345165</v>
+        <v>343599</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3229,13 +2961,13 @@
         <v>362394</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,49 +2976,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="D17" s="7">
-        <v>568839</v>
+        <v>558905</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="I17" s="7">
-        <v>519465</v>
+        <v>507290</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>1570</v>
+        <v>1539</v>
       </c>
       <c r="N17" s="7">
-        <v>1088305</v>
+        <v>1066197</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,10 +3027,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="D18" s="7">
-        <v>743323</v>
+        <v>733389</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3310,10 +3042,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1019</v>
+        <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>707376</v>
+        <v>695201</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3325,10 +3057,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2079</v>
+        <v>2048</v>
       </c>
       <c r="N18" s="7">
-        <v>1450699</v>
+        <v>1428591</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3362,7 +3094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF6BA35-E034-4536-8D93-7886E98813E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7251878A-5416-4889-8325-7040B5934212}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3379,7 +3111,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3486,13 +3218,13 @@
         <v>29312</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7">
         <v>69</v>
@@ -3501,7 +3233,7 @@
         <v>44472</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>34</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>199</v>
@@ -3516,13 +3248,13 @@
         <v>73784</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,43 +3263,43 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D5" s="7">
-        <v>94852</v>
+        <v>91089</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>205</v>
       </c>
       <c r="H5" s="7">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="I5" s="7">
-        <v>86495</v>
+        <v>78123</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>265</v>
+      </c>
+      <c r="N5" s="7">
+        <v>169212</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="M5" s="7">
-        <v>284</v>
-      </c>
-      <c r="N5" s="7">
-        <v>181347</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>209</v>
@@ -3582,10 +3314,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D6" s="7">
-        <v>124164</v>
+        <v>120401</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3597,10 +3329,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="I6" s="7">
-        <v>130967</v>
+        <v>122595</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3612,10 +3344,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="N6" s="7">
-        <v>255131</v>
+        <v>242996</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3641,13 +3373,13 @@
         <v>81397</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
         <v>99</v>
@@ -3656,13 +3388,13 @@
         <v>63171</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
         <v>213</v>
@@ -3671,13 +3403,13 @@
         <v>144568</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,49 +3418,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D8" s="7">
-        <v>175994</v>
+        <v>174639</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H8" s="7">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I8" s="7">
-        <v>146177</v>
+        <v>145507</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="N8" s="7">
-        <v>322170</v>
+        <v>320146</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,10 +3469,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D9" s="7">
-        <v>257391</v>
+        <v>256036</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3752,10 +3484,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I9" s="7">
-        <v>209348</v>
+        <v>208678</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3767,10 +3499,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="N9" s="7">
-        <v>466738</v>
+        <v>464714</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3793,16 +3525,16 @@
         <v>92</v>
       </c>
       <c r="D10" s="7">
-        <v>66745</v>
+        <v>66746</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -3811,13 +3543,13 @@
         <v>46059</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>158</v>
@@ -3826,13 +3558,13 @@
         <v>112805</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,19 +3573,19 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D11" s="7">
-        <v>119100</v>
+        <v>117610</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
         <v>206</v>
@@ -3862,28 +3594,28 @@
         <v>142840</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N11" s="7">
-        <v>261939</v>
+        <v>260450</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,10 +3624,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D12" s="7">
-        <v>185845</v>
+        <v>184356</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3922,10 +3654,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>374744</v>
+        <v>373255</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3951,13 +3683,13 @@
         <v>43300</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -3966,13 +3698,13 @@
         <v>46079</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>125</v>
@@ -3981,13 +3713,13 @@
         <v>89379</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,49 +3728,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="7">
-        <v>123816</v>
+        <v>123052</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I14" s="7">
-        <v>121630</v>
+        <v>120088</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="N14" s="7">
-        <v>245446</v>
+        <v>243140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,10 +3779,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D15" s="7">
-        <v>167116</v>
+        <v>166352</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4062,10 +3794,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I15" s="7">
-        <v>167709</v>
+        <v>166167</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4077,10 +3809,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="N15" s="7">
-        <v>334825</v>
+        <v>332519</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4106,13 +3838,13 @@
         <v>220754</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H16" s="7">
         <v>301</v>
@@ -4121,10 +3853,10 @@
         <v>199781</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>268</v>
@@ -4136,10 +3868,10 @@
         <v>420535</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>270</v>
@@ -4151,49 +3883,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="D17" s="7">
-        <v>513762</v>
+        <v>506391</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>733</v>
+      </c>
+      <c r="I17" s="7">
+        <v>486558</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="H17" s="7">
-        <v>749</v>
-      </c>
-      <c r="I17" s="7">
-        <v>497142</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1464</v>
+      </c>
+      <c r="N17" s="7">
+        <v>992949</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1491</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1010903</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,10 +3934,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="D18" s="7">
-        <v>734516</v>
+        <v>727145</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4217,10 +3949,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1050</v>
+        <v>1034</v>
       </c>
       <c r="I18" s="7">
-        <v>696923</v>
+        <v>686339</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4232,917 +3964,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2100</v>
+        <v>2073</v>
       </c>
       <c r="N18" s="7">
-        <v>1431438</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8583BE0A-D6F6-4639-98F6-46CBC38B7535}">
-  <dimension ref="A1:Q19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="17" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7">
-        <v>24</v>
-      </c>
-      <c r="D4" s="7">
-        <v>12335</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H4" s="7">
-        <v>28</v>
-      </c>
-      <c r="I4" s="7">
-        <v>15463</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M4" s="7">
-        <v>52</v>
-      </c>
-      <c r="N4" s="7">
-        <v>27798</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7">
-        <v>6643</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H5" s="7">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7">
-        <v>10122</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="M5" s="7">
-        <v>30</v>
-      </c>
-      <c r="N5" s="7">
-        <v>16766</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7">
-        <v>36</v>
-      </c>
-      <c r="D6" s="7">
-        <v>18978</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>46</v>
-      </c>
-      <c r="I6" s="7">
-        <v>25585</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>82</v>
-      </c>
-      <c r="N6" s="7">
-        <v>44564</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7">
-        <v>78</v>
-      </c>
-      <c r="D7" s="7">
-        <v>50267</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H7" s="7">
-        <v>61</v>
-      </c>
-      <c r="I7" s="7">
-        <v>36504</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="M7" s="7">
-        <v>139</v>
-      </c>
-      <c r="N7" s="7">
-        <v>86771</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7">
-        <v>47</v>
-      </c>
-      <c r="D8" s="7">
-        <v>29440</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H8" s="7">
-        <v>53</v>
-      </c>
-      <c r="I8" s="7">
-        <v>35279</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M8" s="7">
-        <v>100</v>
-      </c>
-      <c r="N8" s="7">
-        <v>64719</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7">
-        <v>125</v>
-      </c>
-      <c r="D9" s="7">
-        <v>79707</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>114</v>
-      </c>
-      <c r="I9" s="7">
-        <v>71783</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="7">
-        <v>239</v>
-      </c>
-      <c r="N9" s="7">
-        <v>151490</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7">
-        <v>82</v>
-      </c>
-      <c r="D10" s="7">
-        <v>64667</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H10" s="7">
-        <v>81</v>
-      </c>
-      <c r="I10" s="7">
-        <v>59093</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M10" s="7">
-        <v>163</v>
-      </c>
-      <c r="N10" s="7">
-        <v>123761</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7">
-        <v>46</v>
-      </c>
-      <c r="D11" s="7">
-        <v>36277</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H11" s="7">
-        <v>39</v>
-      </c>
-      <c r="I11" s="7">
-        <v>28690</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="M11" s="7">
-        <v>85</v>
-      </c>
-      <c r="N11" s="7">
-        <v>64967</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7">
-        <v>128</v>
-      </c>
-      <c r="D12" s="7">
-        <v>100944</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>120</v>
-      </c>
-      <c r="I12" s="7">
-        <v>87783</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="7">
-        <v>248</v>
-      </c>
-      <c r="N12" s="7">
-        <v>188728</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
-        <v>110</v>
-      </c>
-      <c r="D13" s="7">
-        <v>90602</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H13" s="7">
-        <v>99</v>
-      </c>
-      <c r="I13" s="7">
-        <v>69544</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="M13" s="7">
-        <v>209</v>
-      </c>
-      <c r="N13" s="7">
-        <v>160146</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7">
-        <v>62</v>
-      </c>
-      <c r="D14" s="7">
-        <v>51696</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H14" s="7">
-        <v>60</v>
-      </c>
-      <c r="I14" s="7">
-        <v>45362</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M14" s="7">
-        <v>122</v>
-      </c>
-      <c r="N14" s="7">
-        <v>97058</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>172</v>
-      </c>
-      <c r="D15" s="7">
-        <v>142298</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>159</v>
-      </c>
-      <c r="I15" s="7">
-        <v>114906</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
-        <v>331</v>
-      </c>
-      <c r="N15" s="7">
-        <v>257204</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>294</v>
-      </c>
-      <c r="D16" s="7">
-        <v>217872</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H16" s="7">
-        <v>269</v>
-      </c>
-      <c r="I16" s="7">
-        <v>180605</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="M16" s="7">
-        <v>563</v>
-      </c>
-      <c r="N16" s="7">
-        <v>398476</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="7">
-        <v>167</v>
-      </c>
-      <c r="D17" s="7">
-        <v>124056</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H17" s="7">
-        <v>170</v>
-      </c>
-      <c r="I17" s="7">
-        <v>119453</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="M17" s="7">
-        <v>337</v>
-      </c>
-      <c r="N17" s="7">
-        <v>243510</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>461</v>
-      </c>
-      <c r="D18" s="7">
-        <v>341928</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>439</v>
-      </c>
-      <c r="I18" s="7">
-        <v>300058</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="7">
-        <v>900</v>
-      </c>
-      <c r="N18" s="7">
-        <v>641986</v>
+        <v>1413484</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP29_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP29_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0DFA6B3-DEB3-4C73-A5E7-D237D59BD02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53ED719D-63DA-47D6-A664-CAB7A103406D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C287CDF-C9E0-4A71-8173-3A4856F11FBA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A9B450E9-743E-462E-8FFC-330A769780E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="283">
   <si>
     <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2007 (Tasa respuesta: 96,15%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,61 +73,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
     <t>27,99%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
   </si>
   <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
     <t>72,01%</t>
   </si>
   <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
   </si>
   <si>
     <t>70,11%</t>
   </si>
   <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -136,739 +136,757 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
     <t>31,16%</t>
   </si>
   <si>
-    <t>26,73%</t>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2012 (Tasa respuesta: 97,57%)</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2016 (Tasa respuesta: 97,51%)</t>
   </si>
   <si>
     <t>36,28%</t>
   </si>
   <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
   </si>
   <si>
     <t>63,72%</t>
   </si>
   <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
   </si>
   <si>
     <t>31,32%</t>
   </si>
   <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
   </si>
   <si>
     <t>68,68%</t>
   </si>
   <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2012 (Tasa respuesta: 97,57%)</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2016 (Tasa respuesta: 97,51%)</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
   </si>
   <si>
     <t>29,75%</t>
   </si>
   <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
   </si>
   <si>
     <t>70,25%</t>
   </si>
   <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBB9D7C-2E4A-436F-B996-3651102F28C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C450284-379C-430D-8A82-A88D3E9E17DF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1401,7 +1419,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="7">
-        <v>29799</v>
+        <v>30238</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1416,7 +1434,7 @@
         <v>45</v>
       </c>
       <c r="I4" s="7">
-        <v>30238</v>
+        <v>29799</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1449,10 +1467,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D5" s="7">
-        <v>76658</v>
+        <v>64177</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1464,10 +1482,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="I5" s="7">
-        <v>64177</v>
+        <v>76658</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1500,25 +1518,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>144</v>
+      </c>
+      <c r="D6" s="7">
+        <v>94415</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>160</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>106457</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>144</v>
-      </c>
-      <c r="I6" s="7">
-        <v>94415</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1553,10 +1571,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D7" s="7">
-        <v>77988</v>
+        <v>73035</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1568,10 +1586,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="I7" s="7">
-        <v>73035</v>
+        <v>77988</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1604,10 +1622,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D8" s="7">
-        <v>172253</v>
+        <v>174311</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1619,10 +1637,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I8" s="7">
-        <v>174311</v>
+        <v>172253</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1655,25 +1673,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>371</v>
+      </c>
+      <c r="D9" s="7">
+        <v>247346</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>377</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>250241</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>371</v>
-      </c>
-      <c r="I9" s="7">
-        <v>247346</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1708,10 +1726,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>27396</v>
+        <v>40046</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1723,10 +1741,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>40046</v>
+        <v>27396</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1759,10 +1777,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="D11" s="7">
-        <v>109338</v>
+        <v>82517</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1774,10 +1792,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="I11" s="7">
-        <v>82517</v>
+        <v>109338</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1810,25 +1828,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>184</v>
+      </c>
+      <c r="D12" s="7">
+        <v>122563</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>205</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>136734</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>184</v>
-      </c>
-      <c r="I12" s="7">
-        <v>122563</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1863,10 +1881,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="7">
-        <v>63652</v>
+        <v>61781</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1878,10 +1896,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I13" s="7">
-        <v>61781</v>
+        <v>63652</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1914,10 +1932,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="D14" s="7">
-        <v>138353</v>
+        <v>126660</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1929,10 +1947,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="I14" s="7">
-        <v>126660</v>
+        <v>138353</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1965,25 +1983,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>278</v>
+      </c>
+      <c r="D15" s="7">
+        <v>188441</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>304</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>202005</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>278</v>
-      </c>
-      <c r="I15" s="7">
-        <v>188441</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2018,10 +2036,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D16" s="7">
-        <v>198834</v>
+        <v>205100</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2033,10 +2051,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="I16" s="7">
-        <v>205100</v>
+        <v>198834</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2069,10 +2087,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>746</v>
+        <v>671</v>
       </c>
       <c r="D17" s="7">
-        <v>496603</v>
+        <v>447665</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2084,10 +2102,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>671</v>
+        <v>746</v>
       </c>
       <c r="I17" s="7">
-        <v>447665</v>
+        <v>496603</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2120,25 +2138,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>977</v>
+      </c>
+      <c r="D18" s="7">
+        <v>652765</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1046</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>695437</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>977</v>
-      </c>
-      <c r="I18" s="7">
-        <v>652765</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2187,7 +2205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF425FF-9B52-49D1-8A03-37AFA868DEFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E032E62-01E9-42A8-A816-3ACA90185F34}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2305,10 +2323,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D4" s="7">
-        <v>29179</v>
+        <v>38909</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>108</v>
@@ -2320,10 +2338,10 @@
         <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I4" s="7">
-        <v>38909</v>
+        <v>29179</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>111</v>
@@ -2356,10 +2374,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D5" s="7">
-        <v>106877</v>
+        <v>97243</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>117</v>
@@ -2371,10 +2389,10 @@
         <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I5" s="7">
-        <v>97243</v>
+        <v>106877</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>120</v>
@@ -2407,25 +2425,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>203</v>
+      </c>
+      <c r="D6" s="7">
+        <v>136152</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>194</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>136056</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>203</v>
-      </c>
-      <c r="I6" s="7">
-        <v>136152</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2460,10 +2478,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="7">
-        <v>65932</v>
+        <v>58948</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>126</v>
@@ -2475,10 +2493,10 @@
         <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I7" s="7">
-        <v>58948</v>
+        <v>65932</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>129</v>
@@ -2511,10 +2529,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="D8" s="7">
-        <v>198980</v>
+        <v>176045</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>135</v>
@@ -2526,10 +2544,10 @@
         <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="I8" s="7">
-        <v>176045</v>
+        <v>198980</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>138</v>
@@ -2562,25 +2580,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>338</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234993</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>369</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>264912</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>338</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234993</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2615,10 +2633,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D10" s="7">
-        <v>34675</v>
+        <v>48986</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>144</v>
@@ -2630,10 +2648,10 @@
         <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>48986</v>
+        <v>34675</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>147</v>
@@ -2666,10 +2684,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D11" s="7">
-        <v>121160</v>
+        <v>108057</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>153</v>
@@ -2681,10 +2699,10 @@
         <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="I11" s="7">
-        <v>108057</v>
+        <v>121160</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>156</v>
@@ -2717,25 +2735,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>223</v>
+      </c>
+      <c r="D12" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>224</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>155835</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>223</v>
-      </c>
-      <c r="I12" s="7">
-        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2770,13 +2788,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7">
-        <v>44697</v>
+        <v>41068</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>162</v>
@@ -2785,10 +2803,10 @@
         <v>163</v>
       </c>
       <c r="H13" s="7">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I13" s="7">
-        <v>41068</v>
+        <v>44697</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>164</v>
@@ -2821,13 +2839,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="D14" s="7">
-        <v>131889</v>
+        <v>125945</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>170</v>
@@ -2836,10 +2854,10 @@
         <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="I14" s="7">
-        <v>125945</v>
+        <v>131889</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>172</v>
@@ -2872,25 +2890,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>237</v>
+      </c>
+      <c r="D15" s="7">
+        <v>167013</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>260</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>176586</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>237</v>
-      </c>
-      <c r="I15" s="7">
-        <v>167013</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2925,10 +2943,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="D16" s="7">
-        <v>174484</v>
+        <v>187911</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>178</v>
@@ -2940,10 +2958,10 @@
         <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="I16" s="7">
-        <v>187911</v>
+        <v>174484</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>181</v>
@@ -2976,10 +2994,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>807</v>
+        <v>732</v>
       </c>
       <c r="D17" s="7">
-        <v>558905</v>
+        <v>507290</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>187</v>
@@ -2991,10 +3009,10 @@
         <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>732</v>
+        <v>807</v>
       </c>
       <c r="I17" s="7">
-        <v>507290</v>
+        <v>558905</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>190</v>
@@ -3027,25 +3045,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1001</v>
+      </c>
+      <c r="D18" s="7">
+        <v>695201</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1047</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>733389</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1001</v>
-      </c>
-      <c r="I18" s="7">
-        <v>695201</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3094,7 +3112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7251878A-5416-4889-8325-7040B5934212}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65225A2-B8E8-42F5-B047-7BE849B6787B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3212,10 +3230,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D4" s="7">
-        <v>29312</v>
+        <v>44472</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>197</v>
@@ -3224,22 +3242,22 @@
         <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7">
-        <v>44472</v>
+        <v>29312</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>113</v>
@@ -3248,13 +3266,13 @@
         <v>73784</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,49 +3281,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>128</v>
+      </c>
+      <c r="D5" s="7">
+        <v>78123</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="7">
         <v>137</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>91089</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="7">
-        <v>128</v>
-      </c>
-      <c r="I5" s="7">
-        <v>78123</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>265</v>
       </c>
       <c r="N5" s="7">
-        <v>169212</v>
+        <v>169213</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,25 +3332,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>197</v>
+      </c>
+      <c r="D6" s="7">
+        <v>122595</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>181</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>120401</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>197</v>
-      </c>
-      <c r="I6" s="7">
-        <v>122595</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3347,7 +3365,7 @@
         <v>378</v>
       </c>
       <c r="N6" s="7">
-        <v>242996</v>
+        <v>242997</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3367,34 +3385,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>99</v>
+      </c>
+      <c r="D7" s="7">
+        <v>63171</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" s="7">
         <v>114</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>81397</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="7">
-        <v>99</v>
-      </c>
-      <c r="I7" s="7">
-        <v>63171</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
         <v>213</v>
@@ -3403,13 +3421,13 @@
         <v>144568</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,34 +3436,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>230</v>
+      </c>
+      <c r="D8" s="7">
+        <v>145507</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" s="7">
         <v>263</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>174639</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H8" s="7">
-        <v>230</v>
-      </c>
-      <c r="I8" s="7">
-        <v>145507</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
         <v>493</v>
@@ -3454,13 +3472,13 @@
         <v>320146</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,25 +3487,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>329</v>
+      </c>
+      <c r="D9" s="7">
+        <v>208678</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>377</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>256036</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>329</v>
-      </c>
-      <c r="I9" s="7">
-        <v>208678</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3522,34 +3540,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>66</v>
+      </c>
+      <c r="D10" s="7">
+        <v>46059</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" s="7">
         <v>92</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>66746</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H10" s="7">
-        <v>66</v>
-      </c>
-      <c r="I10" s="7">
-        <v>46059</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>158</v>
@@ -3558,13 +3576,13 @@
         <v>112805</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,34 +3591,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>206</v>
+      </c>
+      <c r="D11" s="7">
+        <v>142840</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="7">
         <v>165</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>117610</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H11" s="7">
-        <v>206</v>
-      </c>
-      <c r="I11" s="7">
-        <v>142840</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>371</v>
@@ -3609,13 +3627,13 @@
         <v>260450</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,25 +3642,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>257</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>184356</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3677,34 +3695,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>67</v>
+      </c>
+      <c r="D13" s="7">
+        <v>46079</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H13" s="7">
         <v>58</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>43300</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H13" s="7">
-        <v>67</v>
-      </c>
-      <c r="I13" s="7">
-        <v>46079</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
         <v>125</v>
@@ -3713,13 +3731,13 @@
         <v>89379</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,34 +3746,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>169</v>
+      </c>
+      <c r="D14" s="7">
+        <v>120088</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="7">
         <v>166</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>123052</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H14" s="7">
-        <v>169</v>
-      </c>
-      <c r="I14" s="7">
-        <v>120088</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
         <v>335</v>
@@ -3764,13 +3782,13 @@
         <v>243140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,25 +3797,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>236</v>
+      </c>
+      <c r="D15" s="7">
+        <v>166167</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>224</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>166352</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>236</v>
-      </c>
-      <c r="I15" s="7">
-        <v>166167</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3832,34 +3850,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>301</v>
+      </c>
+      <c r="D16" s="7">
+        <v>199781</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="7">
         <v>308</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>220754</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H16" s="7">
-        <v>301</v>
-      </c>
-      <c r="I16" s="7">
-        <v>199781</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M16" s="7">
         <v>609</v>
@@ -3868,13 +3886,13 @@
         <v>420535</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,34 +3901,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>733</v>
+      </c>
+      <c r="D17" s="7">
+        <v>486558</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H17" s="7">
         <v>731</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>506391</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H17" s="7">
-        <v>733</v>
-      </c>
-      <c r="I17" s="7">
-        <v>486558</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>1464</v>
@@ -3919,13 +3937,13 @@
         <v>992949</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,25 +3952,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1034</v>
+      </c>
+      <c r="D18" s="7">
+        <v>686339</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1039</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>727145</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1034</v>
-      </c>
-      <c r="I18" s="7">
-        <v>686339</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
